--- a/datasets/Gennai_Rom.Ansab_Cores.xlsx
+++ b/datasets/Gennai_Rom.Ansab_Cores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fddd770e2047065/Papers/Comparison EUP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\falcu\Documents\GitHub\EUP_Comparison\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{E710987A-B881-4553-8235-32AD6BD66EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66CC9485-5142-4A8D-9C50-3A0F1FF071E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64C9FA-E41E-44C3-9BAA-2CDA52A2D973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="990" windowWidth="26295" windowHeight="16590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cores_Gennai" sheetId="1" r:id="rId1"/>
@@ -1576,7 +1576,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1881,44 +1881,44 @@
   <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.40625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.40625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.40625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.54296875" customWidth="1"/>
     <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.1328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.40625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A38" s="3" t="s">
         <v>33</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" s="3" t="s">
         <v>33</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A44" s="3" t="s">
         <v>33</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A46" s="3" t="s">
         <v>33</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A47" s="3" t="s">
         <v>218</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A48" s="3" t="s">
         <v>218</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A49" s="3" t="s">
         <v>218</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A50" s="3" t="s">
         <v>218</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A51" s="3" t="s">
         <v>218</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A52" s="3" t="s">
         <v>218</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A53" s="3" t="s">
         <v>33</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A54" s="3" t="s">
         <v>33</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A55" s="3" t="s">
         <v>33</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A57" s="3" t="s">
         <v>33</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A58" s="3" t="s">
         <v>33</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A59" s="3" t="s">
         <v>33</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A60" s="3" t="s">
         <v>33</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A61" s="3" t="s">
         <v>33</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A62" s="3" t="s">
         <v>33</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A63" s="3" t="s">
         <v>33</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A64" s="3" t="s">
         <v>33</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A65" s="3" t="s">
         <v>33</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A66" s="3" t="s">
         <v>33</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A67" s="3" t="s">
         <v>33</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A68" s="3" t="s">
         <v>33</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A69" s="3" t="s">
         <v>33</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A70" s="3" t="s">
         <v>33</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A71" s="3" t="s">
         <v>33</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A72" s="3" t="s">
         <v>33</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A73" s="3" t="s">
         <v>33</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A74" s="3" t="s">
         <v>33</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A75" s="3" t="s">
         <v>33</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A76" s="3" t="s">
         <v>33</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A77" s="3" t="s">
         <v>33</v>
       </c>
@@ -9683,7 +9683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A78" s="3" t="s">
         <v>33</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A79" s="3" t="s">
         <v>33</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A80" s="3" t="s">
         <v>33</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A81" s="3" t="s">
         <v>33</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A82" s="3" t="s">
         <v>33</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A83" s="3" t="s">
         <v>33</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A84" s="3" t="s">
         <v>33</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A85" s="3" t="s">
         <v>33</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A86" s="3" t="s">
         <v>33</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A87" s="3" t="s">
         <v>33</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A88" s="3" t="s">
         <v>33</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A89" s="3" t="s">
         <v>33</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A90" s="3" t="s">
         <v>33</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A91" s="3" t="s">
         <v>33</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A92" s="3" t="s">
         <v>33</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A93" s="3" t="s">
         <v>33</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A94" s="3" t="s">
         <v>33</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A95" s="3" t="s">
         <v>33</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A96" s="3" t="s">
         <v>33</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A97" s="3" t="s">
         <v>33</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A98" s="3" t="s">
         <v>33</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A99" s="3" t="s">
         <v>33</v>
       </c>
@@ -11905,7 +11905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A100" s="3" t="s">
         <v>33</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A101" s="3" t="s">
         <v>33</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A102" s="3" t="s">
         <v>33</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A103" s="3" t="s">
         <v>33</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A104" s="3" t="s">
         <v>33</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A105" s="3" t="s">
         <v>33</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A106" s="3" t="s">
         <v>33</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A107" s="3" t="s">
         <v>33</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A108" s="3" t="s">
         <v>33</v>
       </c>
@@ -12814,7 +12814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A109" s="3" t="s">
         <v>33</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A110" s="3" t="s">
         <v>33</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A111" s="3" t="s">
         <v>33</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A112" s="3" t="s">
         <v>33</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A113" s="3" t="s">
         <v>33</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A114" s="3" t="s">
         <v>33</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A115" s="3" t="s">
         <v>33</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A116" s="3" t="s">
         <v>33</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A117" s="3" t="s">
         <v>33</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A118" s="3" t="s">
         <v>33</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A119" s="3" t="s">
         <v>33</v>
       </c>
@@ -13925,7 +13925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A120" s="3" t="s">
         <v>33</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A121" s="3" t="s">
         <v>33</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A122" s="3" t="s">
         <v>33</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A123" s="3" t="s">
         <v>33</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A124" s="3" t="s">
         <v>33</v>
       </c>
@@ -14430,7 +14430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A125" s="3" t="s">
         <v>33</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A126" s="3" t="s">
         <v>33</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A127" s="3" t="s">
         <v>33</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A128" s="3" t="s">
         <v>33</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A129" s="3" t="s">
         <v>33</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A130" s="3" t="s">
         <v>33</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A131" s="3" t="s">
         <v>33</v>
       </c>
@@ -15137,7 +15137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A132" s="3" t="s">
         <v>33</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A133" s="3" t="s">
         <v>218</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A134" s="3" t="s">
         <v>218</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A135" s="3" t="s">
         <v>218</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A136" s="3" t="s">
         <v>218</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A137" s="3" t="s">
         <v>218</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A138" s="3" t="s">
         <v>218</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A139" s="3" t="s">
         <v>218</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A140" s="3" t="s">
         <v>218</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A141" s="3" t="s">
         <v>218</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A142" s="3" t="s">
         <v>218</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A143" s="3" t="s">
         <v>218</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A144" s="3" t="s">
         <v>218</v>
       </c>
@@ -16451,7 +16451,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>